--- a/ClassroomAutomation/Data/Config.xlsx
+++ b/ClassroomAutomation/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\UiPath\ClassroomAutomation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\ClassroomAutomation\ClassroomAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A8374-DD06-4142-812A-BA7A6EB4800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFD4C3-45C4-43CD-AD75-7F7CD014B2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,13 +165,13 @@
     <t>webApp</t>
   </si>
   <si>
-    <t>https://web-agenda-virtual.firebaseapp.com/</t>
-  </si>
-  <si>
     <t>credentialNameApp</t>
   </si>
   <si>
     <t>av</t>
+  </si>
+  <si>
+    <t>https://osc-agenda-virtual.web.app/</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -642,15 +642,15 @@
         <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
